--- a/Patient_data.xlsx
+++ b/Patient_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/connielee/Desktop/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB9FEC8D-8F49-514D-A92F-3BD0BE728AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB9F982-B7AC-864C-9AC0-4C4184CF4F8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="500" windowWidth="28240" windowHeight="16880" xr2:uid="{755E49C0-42EA-B446-8E65-8FB7DE152CAE}"/>
+    <workbookView xWindow="280" yWindow="500" windowWidth="28240" windowHeight="16500" xr2:uid="{755E49C0-42EA-B446-8E65-8FB7DE152CAE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -130,34 +130,44 @@
     <t>最近去過中國</t>
   </si>
   <si>
-    <t>台北市大安區</t>
-  </si>
-  <si>
-    <t>新北市板橋區</t>
-  </si>
-  <si>
-    <t>台中市西屯區</t>
-  </si>
-  <si>
-    <t>高雄市鼓山區</t>
-  </si>
-  <si>
-    <t>台南市安平區</t>
-  </si>
-  <si>
-    <t>新竹市東區</t>
-  </si>
-  <si>
-    <t>彰化縣員林市</t>
-  </si>
-  <si>
-    <t>嘉義市西區</t>
-  </si>
-  <si>
-    <t>屏東市</t>
-  </si>
-  <si>
-    <t>宜蘭縣羅東鎮</t>
+    <t>台北市大安區敦化南路二段218號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新北市板橋區中山路一段152號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>台中市西屯區臺灣大道二段666號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高雄市鼓山區大榮街22巷1弄35-1號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>台南市安平區中興街6巷1號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新竹市東區光復路二段101號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>彰化縣員林市大同路一段457號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘉義市西區垂楊路537號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>屏東市中正路72號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宜蘭縣羅東鎮天祥路78號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -536,10 +546,15 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection sqref="A1:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="31.33203125" customWidth="1"/>
+    <col min="4" max="5" width="15.83203125" customWidth="1"/>
+    <col min="6" max="6" width="36.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
@@ -764,5 +779,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>